--- a/modelos/OBAMAS0491029/OBAMAS0491029_Sell Out_metricas.xlsx
+++ b/modelos/OBAMAS0491029/OBAMAS0491029_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,121 +473,161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45017</v>
+        <v>45006</v>
       </c>
       <c r="B2" t="n">
-        <v>22.12282527060199</v>
+        <v>35.55214532430993</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.276005746858614</v>
+        <v>14.32456519093656</v>
       </c>
       <c r="D2" t="n">
-        <v>45.03355157130416</v>
+        <v>58.69549647383072</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45012</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45019</v>
+        <v>45012</v>
       </c>
       <c r="B3" t="n">
-        <v>62.47842662675056</v>
+        <v>61.38131524056711</v>
       </c>
       <c r="C3" t="n">
-        <v>37.74588266477792</v>
+        <v>38.24764028460619</v>
       </c>
       <c r="D3" t="n">
-        <v>86.65031808187717</v>
+        <v>84.1838399522909</v>
       </c>
       <c r="E3" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45012</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45026</v>
+        <v>45017</v>
       </c>
       <c r="B4" t="n">
-        <v>61.56859949830428</v>
+        <v>18.45625019400945</v>
       </c>
       <c r="C4" t="n">
-        <v>37.69811629358099</v>
+        <v>-2.934426104519568</v>
       </c>
       <c r="D4" t="n">
-        <v>86.65137494032943</v>
+        <v>41.24168407280788</v>
       </c>
       <c r="E4" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45019</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45033</v>
+        <v>45019</v>
       </c>
       <c r="B5" t="n">
-        <v>63.97772753877655</v>
+        <v>58.85766807494932</v>
       </c>
       <c r="C5" t="n">
-        <v>40.76600667604574</v>
+        <v>36.1493520055416</v>
       </c>
       <c r="D5" t="n">
-        <v>87.01216700523322</v>
+        <v>80.71906861061613</v>
       </c>
       <c r="E5" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45026</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45040</v>
+        <v>45026</v>
       </c>
       <c r="B6" t="n">
-        <v>63.39150125573518</v>
+        <v>58.67271307516364</v>
       </c>
       <c r="C6" t="n">
-        <v>39.75461692038977</v>
+        <v>35.54075833695075</v>
       </c>
       <c r="D6" t="n">
-        <v>87.49849186089686</v>
+        <v>79.61095205416972</v>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45033</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B7" t="n">
+        <v>61.47332810981742</v>
+      </c>
+      <c r="C7" t="n">
+        <v>38.77672539770821</v>
+      </c>
+      <c r="D7" t="n">
+        <v>82.8913385646017</v>
+      </c>
+      <c r="E7" t="n">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B8" t="n">
+        <v>61.07016265668689</v>
+      </c>
+      <c r="C8" t="n">
+        <v>39.70368418957709</v>
+      </c>
+      <c r="D8" t="n">
+        <v>82.90494107275181</v>
+      </c>
+      <c r="E8" t="n">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="B7" t="n">
-        <v>41.52866960960114</v>
-      </c>
-      <c r="C7" t="n">
-        <v>17.46448541219515</v>
-      </c>
-      <c r="D7" t="n">
-        <v>63.86692404541974</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="B9" t="n">
+        <v>37.08317362724282</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.95345530255218</v>
+      </c>
+      <c r="D9" t="n">
+        <v>58.32368119217081</v>
+      </c>
+      <c r="E9" t="n">
         <v>28</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F9" s="2" t="n">
         <v>45056</v>
       </c>
     </row>
@@ -602,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,25 +694,25 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>172.2085430827502</v>
+        <v>418.1147608381404</v>
       </c>
       <c r="C2" t="n">
-        <v>13.12282527060199</v>
+        <v>20.44785467569007</v>
       </c>
       <c r="D2" t="n">
-        <v>13.12282527060199</v>
+        <v>20.44785467569007</v>
       </c>
       <c r="E2" t="n">
-        <v>1.458091696733554</v>
+        <v>0.3651402620658942</v>
       </c>
       <c r="F2" t="n">
-        <v>1.458091696733554</v>
+        <v>0.3651402620658942</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8432926738818634</v>
+        <v>0.4466930753671927</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -680,28 +720,54 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>89.42066773170374</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.456250194009449</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.456250194009449</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.05069446600105</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.05069446600105</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6888231369681111</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>276.3813527978655</v>
-      </c>
-      <c r="C3" t="n">
-        <v>16.62472113443908</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.37017445581161</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3243709994709687</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2398938333542681</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.2652139368007047</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7999999999999998</v>
+      <c r="B4" t="n">
+        <v>266.7879276636218</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16.33364404116919</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.57959974736688</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.307032191528364</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3000222878531937</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2630588972034997</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6666666666666665</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAMAS0491029/OBAMAS0491029_Sell Out_metricas.xlsx
+++ b/modelos/OBAMAS0491029/OBAMAS0491029_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,161 +473,81 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45006</v>
+        <v>45026</v>
       </c>
       <c r="B2" t="n">
-        <v>35.55214532430993</v>
+        <v>59.42136407401435</v>
       </c>
       <c r="C2" t="n">
-        <v>14.32456519093656</v>
+        <v>35.7649554445578</v>
       </c>
       <c r="D2" t="n">
-        <v>58.69549647383072</v>
+        <v>84.04911772907339</v>
       </c>
       <c r="E2" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45005</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45012</v>
+        <v>45033</v>
       </c>
       <c r="B3" t="n">
-        <v>61.38131524056711</v>
+        <v>61.94198911435168</v>
       </c>
       <c r="C3" t="n">
-        <v>38.24764028460619</v>
+        <v>37.46786472538439</v>
       </c>
       <c r="D3" t="n">
-        <v>84.1838399522909</v>
+        <v>85.05554767312609</v>
       </c>
       <c r="E3" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45005</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45017</v>
+        <v>45040</v>
       </c>
       <c r="B4" t="n">
-        <v>18.45625019400945</v>
+        <v>61.43268860589376</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.934426104519568</v>
+        <v>39.18707637245712</v>
       </c>
       <c r="D4" t="n">
-        <v>41.24168407280788</v>
+        <v>85.59353912864795</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45012</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45019</v>
+        <v>45063</v>
       </c>
       <c r="B5" t="n">
-        <v>58.85766807494932</v>
+        <v>44.05834394263293</v>
       </c>
       <c r="C5" t="n">
-        <v>36.1493520055416</v>
+        <v>20.88289944695157</v>
       </c>
       <c r="D5" t="n">
-        <v>80.71906861061613</v>
+        <v>68.27274437531764</v>
       </c>
       <c r="E5" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45012</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="B6" t="n">
-        <v>58.67271307516364</v>
-      </c>
-      <c r="C6" t="n">
-        <v>35.54075833695075</v>
-      </c>
-      <c r="D6" t="n">
-        <v>79.61095205416972</v>
-      </c>
-      <c r="E6" t="n">
-        <v>81</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="B7" t="n">
-        <v>61.47332810981742</v>
-      </c>
-      <c r="C7" t="n">
-        <v>38.77672539770821</v>
-      </c>
-      <c r="D7" t="n">
-        <v>82.8913385646017</v>
-      </c>
-      <c r="E7" t="n">
-        <v>61</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>45026</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="B8" t="n">
-        <v>61.07016265668689</v>
-      </c>
-      <c r="C8" t="n">
-        <v>39.70368418957709</v>
-      </c>
-      <c r="D8" t="n">
-        <v>82.90494107275181</v>
-      </c>
-      <c r="E8" t="n">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>45033</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45063</v>
-      </c>
-      <c r="B9" t="n">
-        <v>37.08317362724282</v>
-      </c>
-      <c r="C9" t="n">
-        <v>14.95345530255218</v>
-      </c>
-      <c r="D9" t="n">
-        <v>58.32368119217081</v>
-      </c>
-      <c r="E9" t="n">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2" t="n">
         <v>45056</v>
       </c>
     </row>
@@ -642,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,80 +614,28 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>418.1147608381404</v>
+        <v>355.7705772584593</v>
       </c>
       <c r="C2" t="n">
-        <v>20.44785467569007</v>
+        <v>18.86188159379809</v>
       </c>
       <c r="D2" t="n">
-        <v>20.44785467569007</v>
+        <v>16.252914397216</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3651402620658942</v>
+        <v>0.4026443288209069</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3651402620658942</v>
+        <v>0.4199575981659757</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4466930753671927</v>
+        <v>0.3291448521764453</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>89.42066773170374</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9.456250194009449</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.456250194009449</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.05069446600105</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.05069446600105</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.6888231369681111</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>266.7879276636218</v>
-      </c>
-      <c r="C4" t="n">
-        <v>16.33364404116919</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.57959974736688</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.307032191528364</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3000222878531937</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2630588972034997</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAMAS0491029/OBAMAS0491029_Sell Out_metricas.xlsx
+++ b/modelos/OBAMAS0491029/OBAMAS0491029_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>59.42136407401435</v>
       </c>
       <c r="C2" t="n">
-        <v>35.7649554445578</v>
+        <v>36.07221513748666</v>
       </c>
       <c r="D2" t="n">
-        <v>84.04911772907339</v>
+        <v>84.49269407487103</v>
       </c>
       <c r="E2" t="n">
         <v>81</v>
@@ -499,10 +499,10 @@
         <v>61.94198911435168</v>
       </c>
       <c r="C3" t="n">
-        <v>37.46786472538439</v>
+        <v>38.10789646920429</v>
       </c>
       <c r="D3" t="n">
-        <v>85.05554767312609</v>
+        <v>85.37086476068481</v>
       </c>
       <c r="E3" t="n">
         <v>61</v>
@@ -519,10 +519,10 @@
         <v>61.43268860589376</v>
       </c>
       <c r="C4" t="n">
-        <v>39.18707637245712</v>
+        <v>37.67529067551428</v>
       </c>
       <c r="D4" t="n">
-        <v>85.59353912864795</v>
+        <v>83.45557293703126</v>
       </c>
       <c r="E4" t="n">
         <v>35</v>
@@ -539,10 +539,10 @@
         <v>44.05834394263293</v>
       </c>
       <c r="C5" t="n">
-        <v>20.88289944695157</v>
+        <v>20.30412181329467</v>
       </c>
       <c r="D5" t="n">
-        <v>68.27274437531764</v>
+        <v>68.2552038715302</v>
       </c>
       <c r="E5" t="n">
         <v>28</v>
